--- a/Input/final_output_col_text_description.xlsx
+++ b/Input/final_output_col_text_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neumanch/Desktop/TRANSPATH/D3.1/Final_D3.1/Github_repository/Transpath_scenarios_database/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015A45BD-B581-504E-A67B-B109E74CC9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910C6D0-B412-5B49-82BB-3BFCD099D0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52140" yWindow="5200" windowWidth="38400" windowHeight="16940" xr2:uid="{ECDA5D91-3DEB-1F41-8C20-099B724CB848}"/>
+    <workbookView xWindow="51200" yWindow="5200" windowWidth="38400" windowHeight="16940" xr2:uid="{ECDA5D91-3DEB-1F41-8C20-099B724CB848}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="269">
   <si>
     <t>Unique index identifier of scenario</t>
   </si>
@@ -630,9 +630,6 @@
   </si>
   <si>
     <t>Percentage change per decade (%change/decade), originally in Mio. Ha</t>
-  </si>
-  <si>
-    <t>Percentage change per decade (%change/decade), originally the number of decades covered by the collected output (Quantitative_assumptions_time_horizon/10</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage change per decade (%change/decade), originally people that are living in extreme poverty (Mio. people) </t>
@@ -1300,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3EB233-BD75-0A43-88C2-83C59F2365B6}">
   <dimension ref="A1:GT1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BM2" sqref="BM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1500,13 +1497,13 @@
         <v>183</v>
       </c>
       <c r="BM1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>29</v>
@@ -1515,37 +1512,37 @@
         <v>183</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="CC1" s="1" t="s">
         <v>29</v>
@@ -1554,25 +1551,25 @@
         <v>183</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="CF1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="CL1" s="1" t="s">
         <v>29</v>
@@ -1581,19 +1578,19 @@
         <v>183</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="CO1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="CP1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="CS1" s="1" t="s">
         <v>29</v>
@@ -1602,13 +1599,13 @@
         <v>183</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="CV1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="CW1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="CX1" s="1" t="s">
         <v>29</v>
@@ -1617,25 +1614,25 @@
         <v>183</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="DA1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DD1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DB1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DF1" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="DG1" s="1" t="s">
         <v>29</v>
@@ -1644,13 +1641,13 @@
         <v>183</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="DJ1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DK1" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="DL1" s="1" t="s">
         <v>29</v>
@@ -1659,16 +1656,16 @@
         <v>183</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="DO1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="DP1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="DQ1" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="DR1" s="1" t="s">
         <v>29</v>
@@ -1680,7 +1677,7 @@
         <v>178</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="DV1" s="1" t="s">
         <v>29</v>
@@ -1689,28 +1686,28 @@
         <v>183</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="DY1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EA1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="DZ1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EB1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="EE1" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="EF1" s="1" t="s">
         <v>29</v>
@@ -1719,10 +1716,10 @@
         <v>183</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="EJ1" s="1" t="s">
         <v>29</v>
@@ -1734,10 +1731,10 @@
         <v>178</v>
       </c>
       <c r="EM1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="EN1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="EO1" s="1" t="s">
         <v>29</v>
@@ -1746,7 +1743,7 @@
         <v>183</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="ER1" s="1" t="s">
         <v>30</v>
@@ -1776,7 +1773,7 @@
         <v>189</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="FB1" s="1" t="s">
         <v>184</v>
@@ -1788,22 +1785,22 @@
         <v>183</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="FF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="FG1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="FK1" s="1" t="s">
         <v>29</v>
@@ -1812,76 +1809,76 @@
         <v>183</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="FN1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="FO1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="FP1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FR1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="FT1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="FV1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="FW1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c r="FX1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c r="FY1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="FZ1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GA1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GB1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GC1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="GD1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GE1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="GF1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="GF1" s="1" t="s">
+      <c r="GG1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="GH1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="GG1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="GH1" s="1" t="s">
+      <c r="GI1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="GI1" s="1" t="s">
+      <c r="GJ1" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="GK1" s="1" t="s">
         <v>29</v>
@@ -1890,13 +1887,13 @@
         <v>183</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="GP1" s="1" t="s">
         <v>29</v>
@@ -1905,13 +1902,13 @@
         <v>183</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="GS1" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="GT1" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Input/final_output_col_text_description.xlsx
+++ b/Input/final_output_col_text_description.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neumanch/Desktop/TRANSPATH/D3.1/Final_D3.1/Github_repository/Transpath_scenarios_database/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910C6D0-B412-5B49-82BB-3BFCD099D0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110CF178-D64B-424C-88E3-77BD98410D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="5200" windowWidth="38400" windowHeight="16940" xr2:uid="{ECDA5D91-3DEB-1F41-8C20-099B724CB848}"/>
+    <workbookView xWindow="52200" yWindow="3500" windowWidth="38400" windowHeight="16940" xr2:uid="{ECDA5D91-3DEB-1F41-8C20-099B724CB848}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
   <si>
     <t>Unique index identifier of scenario</t>
   </si>
@@ -146,438 +145,6 @@
   </si>
   <si>
     <t>US$2005/t CO2</t>
-  </si>
-  <si>
-    <t>SDG1_Impact</t>
-  </si>
-  <si>
-    <t>SDG1_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG1_Extreme_poverty_(Mio. people)</t>
-  </si>
-  <si>
-    <t>SDG1_Population_less_than_1_dollar_(%)</t>
-  </si>
-  <si>
-    <t>SDG2_Impact</t>
-  </si>
-  <si>
-    <t>SDG2_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG2_Hunger_risk_(Mio. people)</t>
-  </si>
-  <si>
-    <t>SDG2_Prevalence_of_undernourishment_(Mio. people)</t>
-  </si>
-  <si>
-    <t>SDG2_Hunger_incidence_(% population)</t>
-  </si>
-  <si>
-    <t>SDG2_Malnourished_children_(Mio. children)</t>
-  </si>
-  <si>
-    <t>SDG2_Food_price_index_(2005)</t>
-  </si>
-  <si>
-    <t>SDG2_Food_price_index_(2010)</t>
-  </si>
-  <si>
-    <t>SDG2_Food_price_index_(2015)</t>
-  </si>
-  <si>
-    <t>SDG2_Change_average_food_prices_(US$)</t>
-  </si>
-  <si>
-    <t>SDG2_Fertilizer_use_(Input 10^3 ton/y)</t>
-  </si>
-  <si>
-    <t>SDG2_Fertilizer_use_nitrogen_(Tg N/yr)</t>
-  </si>
-  <si>
-    <t>SDG3_Impact</t>
-  </si>
-  <si>
-    <t>SDG3_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG3_Nitrogen_oxide_emissions_(Mt NO2/yr)</t>
-  </si>
-  <si>
-    <t>SDG3_Nitrogen_oxide_emissions_(Mt NOx/yr)</t>
-  </si>
-  <si>
-    <t>SDG3_Sulphur_dioxide_emissions_(Mt SO2/yr)</t>
-  </si>
-  <si>
-    <t>SDG3_Sulphur_dioxide_emissions_(Mt SOx/yr)</t>
-  </si>
-  <si>
-    <t>SDG3_Black_carbon_emissions_(Mt BC/yr)</t>
-  </si>
-  <si>
-    <t>SDG3_PM2.5_emissions_(Mt PM2.5/yr)</t>
-  </si>
-  <si>
-    <t>SDG4_Impact</t>
-  </si>
-  <si>
-    <t>SDG4_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG4_Mean_years_of_schooling_(MYS)</t>
-  </si>
-  <si>
-    <t>SDG4_Adults_no_education_(%)</t>
-  </si>
-  <si>
-    <t>SDG4_Female_education_(%)</t>
-  </si>
-  <si>
-    <t>SDG4_Primary_education_(%)</t>
-  </si>
-  <si>
-    <t>SDG5_Impact</t>
-  </si>
-  <si>
-    <t>SDG5_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG5_Gender_ratio_primary_education</t>
-  </si>
-  <si>
-    <t>SDG5_Gender_ratio_secondary_education</t>
-  </si>
-  <si>
-    <t>SDG6_Impact</t>
-  </si>
-  <si>
-    <t>SDG6_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG6_Add._acc._to_improved_water_source_(Mio. people)</t>
-  </si>
-  <si>
-    <t>SDG6_Add._acc._to_basic_sanitation_facilities_(Mio. people)</t>
-  </si>
-  <si>
-    <t>SDG6_Lack._acc._to_improved_water_source_(Mio. people)</t>
-  </si>
-  <si>
-    <t>SDG6_Severe_water_stress_river_basins_(Mio. people)</t>
-  </si>
-  <si>
-    <t>SDG6_Water_stress_(Mio. people)</t>
-  </si>
-  <si>
-    <t>SDG6_Agricultural_irrigation_(km^3/y)</t>
-  </si>
-  <si>
-    <t>SDG7_Impact</t>
-  </si>
-  <si>
-    <t>SDG7_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG7_Share_renewables_(%)</t>
-  </si>
-  <si>
-    <t>SDG7_UE_buildings_transport_per_capita_(GJ/cap/yr)</t>
-  </si>
-  <si>
-    <t>SDG8_Impact</t>
-  </si>
-  <si>
-    <t>SDG8_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG8_Global_income_convergence_(%)</t>
-  </si>
-  <si>
-    <t>SDG8_Unemployment_(Mio. people)</t>
-  </si>
-  <si>
-    <t>SDG8_Unemployment_rate_(%)</t>
-  </si>
-  <si>
-    <t>SDG9_Impact</t>
-  </si>
-  <si>
-    <t>SDG9_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG9_Industry_hydrogen_electricity_energy_share_(%)</t>
-  </si>
-  <si>
-    <t>SDG10_Impact</t>
-  </si>
-  <si>
-    <t>SDG10_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG10_International_inequity</t>
-  </si>
-  <si>
-    <t>SDG10_National_equity</t>
-  </si>
-  <si>
-    <t>SDG10_International_equity</t>
-  </si>
-  <si>
-    <t>SDG10_Relative_poverty_(%)</t>
-  </si>
-  <si>
-    <t>SDG10_Ratio_GDP_per_capita</t>
-  </si>
-  <si>
-    <t>SDG10_Richest_10 %_ to_poorest_10 %_ratio</t>
-  </si>
-  <si>
-    <t>SDG10_Gini_coefficient_(GINI)</t>
-  </si>
-  <si>
-    <t>SDG11_Impact</t>
-  </si>
-  <si>
-    <t>SDG11_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG11_Urban_PM2.5_concentration_(µg/m3)</t>
-  </si>
-  <si>
-    <t>SDG12_Impact</t>
-  </si>
-  <si>
-    <t>SDG12_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG12_Food_waste_(kcal/cap/day)</t>
-  </si>
-  <si>
-    <t>SDG12_Food_waste_(Mt/yr)</t>
-  </si>
-  <si>
-    <t>SDG13_Impact</t>
-  </si>
-  <si>
-    <t>SDG13_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG13_Total_GHG emissions_(Mt CO2eq/yr)</t>
-  </si>
-  <si>
-    <t>SDG13_Total_CO2_emissions_(Mt CO2/yr)</t>
-  </si>
-  <si>
-    <t>SDG13_AFOLU_CO2_emissions_(Mt CO2/yr)</t>
-  </si>
-  <si>
-    <t>SDG13_AFOLU_emissions_(Mt CO2eq/yr)</t>
-  </si>
-  <si>
-    <t>SDG13_Forcing_(W/m-2)</t>
-  </si>
-  <si>
-    <t>SDG13_CO2_concentration_(ppm)</t>
-  </si>
-  <si>
-    <t>SDG13_Temperature_change_(Since pre-industrial age)</t>
-  </si>
-  <si>
-    <t>SDG13_Carbon_price_(US$/t CO2)</t>
-  </si>
-  <si>
-    <t>SDG14_Impact</t>
-  </si>
-  <si>
-    <t>SDG14_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG14_River_discharges_nitrogen_(t N/yr)</t>
-  </si>
-  <si>
-    <t>SDG14_River_discharges_phosphorus_(t P/year)</t>
-  </si>
-  <si>
-    <t>SDG14_Mean_tropic_index_(MIT)</t>
-  </si>
-  <si>
-    <t>SDG14_Mean_species_abundance_aquatic_(MSA aquatic)</t>
-  </si>
-  <si>
-    <t>SDG14_Ocean_acidification_aragonite_saturation_state</t>
-  </si>
-  <si>
-    <t>SDG15_Impact</t>
-  </si>
-  <si>
-    <t>SDG15_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG15_Habitat_range_size_(%)</t>
-  </si>
-  <si>
-    <t>SDG15_Species_affected_by_50%_range_loss_(%)</t>
-  </si>
-  <si>
-    <t>SDG15_Geometric_mean_abundance_(GMA)</t>
-  </si>
-  <si>
-    <t>SDG15_INSIGHTS_index</t>
-  </si>
-  <si>
-    <t>SDG15_Loss_suitable_habitat_(%)</t>
-  </si>
-  <si>
-    <t>SDG15_Biodiversity_hotspot_loss_(%)</t>
-  </si>
-  <si>
-    <t>SDG15_Reduction_vascular_plant_species_(%)</t>
-  </si>
-  <si>
-    <t>SDG15_Extinction_per_million_species_years</t>
-  </si>
-  <si>
-    <t>SDG15_Area_of_habitat_(ESH/AOH)</t>
-  </si>
-  <si>
-    <t>SDG15_Species_range_protection_level_(%)</t>
-  </si>
-  <si>
-    <t>SDG15_Ecoregions_protection_level_(%)</t>
-  </si>
-  <si>
-    <t>SDG15_Deforestation</t>
-  </si>
-  <si>
-    <t>SDG15_Pressure-based natural capital index (NCI-pb)</t>
-  </si>
-  <si>
-    <t>SDG15_Living_planet_index_(LPI)</t>
-  </si>
-  <si>
-    <t>SDG15_Red_list_index_(RLI)</t>
-  </si>
-  <si>
-    <t>SDG15_Mean_species_abundance_terrestrial_(MSA)</t>
-  </si>
-  <si>
-    <t>SDG15_Biodiversity_intactness_index_(BII)</t>
-  </si>
-  <si>
-    <t>SDG15_Fraction_regionally_remaining_species_(FRRS)</t>
-  </si>
-  <si>
-    <t>SDG15_Fraction_globally_remaining_species_(cSAR_CB17BDM)</t>
-  </si>
-  <si>
-    <t>SDG15_Fraction_globally_remaining_species_(cSAR_US16BDM)</t>
-  </si>
-  <si>
-    <t>SDG15_Potentially_disappeared_fraction_of_species_(PDF)</t>
-  </si>
-  <si>
-    <t>SDG15_Nitrogen_fixation_(Mt N/yr)</t>
-  </si>
-  <si>
-    <t>SDG15_Mean_species_richness_(Species p. grid cell)</t>
-  </si>
-  <si>
-    <t>SDG16_Impact</t>
-  </si>
-  <si>
-    <t>SDG16_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG16_Peace_probability_below_2005_deaths</t>
-  </si>
-  <si>
-    <t>SDG16_Equality_before_law_and_individual_liberty_(%)</t>
-  </si>
-  <si>
-    <t>SDG17_Impact</t>
-  </si>
-  <si>
-    <t>SDG17_Time_horizon</t>
-  </si>
-  <si>
-    <t>SDG17_International_climate_finance_(US$)</t>
-  </si>
-  <si>
-    <t>Interventions</t>
-  </si>
-  <si>
-    <t>Intervention_agg_lvl1</t>
-  </si>
-  <si>
-    <t>Intervention_type</t>
-  </si>
-  <si>
-    <t>Intervention_category</t>
-  </si>
-  <si>
-    <t>Intervention_sector</t>
-  </si>
-  <si>
-    <t>SDG1_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG2_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG3_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG4_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG5_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG6_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG7_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG8_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG9_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG10_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG11_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG12_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG13_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG13_Time_steps</t>
-  </si>
-  <si>
-    <t>SDG13_Temperature_change_(Since pre-industrial age)_raw_data</t>
-  </si>
-  <si>
-    <t>SDG13_Carbon_price_(US$/t CO2)_raw_data</t>
-  </si>
-  <si>
-    <t>SDG14_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG15_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG16_Time_horizon_decades</t>
-  </si>
-  <si>
-    <t>SDG17_Time_horizon_decades</t>
   </si>
   <si>
     <t>The time period covered by the collected output, here: 2030–2100 = 70 years.</t>
@@ -890,13 +457,13 @@
     <t>Percentage change per decade (%change/decade), originally Probability of &lt; 20,000 fatalities</t>
   </si>
   <si>
-    <t>Percentage change per decade (%change/decade), originally in % change or unit measurement</t>
-  </si>
-  <si>
     <t>Percentage change per decade (%change/decade), originally in billion US$ 2005/yr</t>
   </si>
   <si>
     <t>The number of decades covered by the collected output (Quantitative_assumptions_time_horizon/10)</t>
+  </si>
+  <si>
+    <t>Intervention groups that were applied in scenario (aggregated)</t>
   </si>
 </sst>
 </file>
@@ -1297,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3EB233-BD75-0A43-88C2-83C59F2365B6}">
   <dimension ref="A1:GT1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BM2" sqref="BM2"/>
+    <sheetView tabSelected="1" topLeftCell="GD1" workbookViewId="0">
+      <selection activeCell="GD1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1443,28 +1010,28 @@
         <v>24</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>25</v>
@@ -1479,885 +1046,436 @@
         <v>28</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>201</v>
+        <v>54</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="DO1" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="DQ1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="DY1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="EA1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>230</v>
+        <v>39</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DZ1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="EE1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="ER1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="ES1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="EU1" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="EV1" s="1" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>264</v>
+        <v>119</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="GS1" s="4" t="s">
-        <v>266</v>
+        <v>39</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2539D07-AA76-5F40-8502-5A895BBCD030}">
-  <dimension ref="A1:EN1"/>
-  <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DI1" t="s">
         <v>122</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>129</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>130</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>131</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>132</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>133</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>134</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>136</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>137</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>138</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>142</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>175</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>147</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>176</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
